--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Ewout.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Ewout.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18450" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27150" windowHeight="15060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Reconciliation Peer Review" sheetId="2" r:id="rId2"/>
     <sheet name="Specification QA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -625,6 +625,42 @@
       </rPr>
       <t> is the focal class of the message, why is data 0..*? And not 0..1 like in Composition's Section.contents?</t>
     </r>
+  </si>
+  <si>
+    <t>todo after San Antonio</t>
+  </si>
+  <si>
+    <t>Referred to Lloyd</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>future use</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>no change needed</t>
+  </si>
+  <si>
+    <t>not gone</t>
+  </si>
+  <si>
+    <t>it is true (why it mentions attributes)</t>
+  </si>
+  <si>
+    <t>maybe, but doesn't justify change. Revisit later</t>
+  </si>
+  <si>
+    <t>not up to atom if you have a detached signature. Leave as is</t>
+  </si>
+  <si>
+    <t>done / future use</t>
+  </si>
+  <si>
+    <t>It's not the "focal" - no change</t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1149,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1146,8 +1182,11 @@
       <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1157,8 +1196,11 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1168,8 +1210,11 @@
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1182,8 +1227,11 @@
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1196,8 +1244,11 @@
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1213,8 +1264,11 @@
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1224,8 +1278,11 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1235,8 +1292,11 @@
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1246,8 +1306,11 @@
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1260,8 +1323,11 @@
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1274,8 +1340,11 @@
       <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1288,8 +1357,11 @@
       <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -1302,8 +1374,11 @@
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1316,8 +1391,11 @@
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -1330,8 +1408,11 @@
       <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -1341,8 +1422,11 @@
       <c r="F17" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1358,8 +1442,11 @@
       <c r="F18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -1369,8 +1456,11 @@
       <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1380,8 +1470,11 @@
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -1397,8 +1490,11 @@
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
@@ -1414,8 +1510,11 @@
       <c r="F22" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -1428,8 +1527,11 @@
       <c r="F23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
@@ -1442,8 +1544,11 @@
       <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
@@ -1456,8 +1561,11 @@
       <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1467,8 +1575,11 @@
       <c r="F26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -1478,8 +1589,11 @@
       <c r="E27" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -1489,8 +1603,11 @@
       <c r="F28" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -1506,8 +1623,11 @@
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
@@ -1520,8 +1640,11 @@
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
@@ -1531,8 +1654,11 @@
       <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
@@ -1542,8 +1668,11 @@
       <c r="F32" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
@@ -1553,8 +1682,11 @@
       <c r="F33" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -1564,8 +1696,11 @@
       <c r="F34" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -1575,8 +1710,11 @@
       <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -1589,8 +1727,11 @@
       <c r="F36" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
@@ -1600,8 +1741,11 @@
       <c r="F37" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
@@ -1611,8 +1755,11 @@
       <c r="F38" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>96</v>
       </c>
@@ -1628,8 +1775,11 @@
       <c r="F39" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>100</v>
       </c>
@@ -1642,8 +1792,11 @@
       <c r="F40" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
@@ -1652,6 +1805,9 @@
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
